--- a/src/assets/files/BBDD.xlsx
+++ b/src/assets/files/BBDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ernesto\OneDrive\Documentos\A0 Solutions\PROYECTOS\2024\2024 - 02 - 15 CLASS DESIGN\Recursos\PRODUCTOS\Colections\Bedroom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\classapi\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D315BDDB-9540-43AC-9DCE-C73B9AD6DE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4C709-3E97-42E9-9841-30168B7640E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F2AB1B4-40A3-429D-A54A-93A89B5B5C95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F2AB1B4-40A3-429D-A54A-93A89B5B5C95}"/>
   </bookViews>
   <sheets>
     <sheet name="Bath" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -172,13 +172,16 @@
     <t>sinkType</t>
   </si>
   <si>
-    <t>SQL</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shipping</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4C46E2-D130-43FD-81FC-ED70177715EA}">
   <dimension ref="A1:AX596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,8 +742,7 @@
     <col min="46" max="46" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="13.42578125" style="3" customWidth="1"/>
-    <col min="50" max="50" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="11.5703125" style="3"/>
+    <col min="50" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
@@ -886,11 +888,13 @@
         <v>46</v>
       </c>
       <c r="AV1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="3" t="s">
-        <v>47</v>
+      <c r="AX1" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
@@ -2076,2116 +2080,2116 @@
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F358" s="12"/>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D359" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F359" s="12"/>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F360" s="12"/>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F361" s="12"/>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F362" s="12"/>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F363" s="12"/>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F364" s="12"/>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F365" s="12"/>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F366" s="12"/>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D367" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F367" s="12"/>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F368" s="12"/>
     </row>
     <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F369" s="12"/>
     </row>
     <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F370" s="12"/>
     </row>
     <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F371" s="12"/>
     </row>
     <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F372" s="12"/>
     </row>
     <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F373" s="12"/>
     </row>
     <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F374" s="12"/>
     </row>
     <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F375" s="12"/>
     </row>
     <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F376" s="12"/>
     </row>
     <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F377" s="12"/>
     </row>
     <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F378" s="12"/>
     </row>
     <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F379" s="12"/>
     </row>
     <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F380" s="12"/>
     </row>
     <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F381" s="12"/>
     </row>
     <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F382" s="12"/>
     </row>
     <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F383" s="12"/>
     </row>
     <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F384" s="12"/>
     </row>
     <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F385" s="12"/>
     </row>
     <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F386" s="12"/>
     </row>
     <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F387" s="12"/>
     </row>
     <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F388" s="12"/>
     </row>
     <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F389" s="12"/>
     </row>
     <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F390" s="12"/>
     </row>
     <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F391" s="12"/>
     </row>
     <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F392" s="12"/>
     </row>
     <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F393" s="12"/>
     </row>
     <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F394" s="12"/>
     </row>
     <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F395" s="12"/>
     </row>
     <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F396" s="12"/>
     </row>
     <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F397" s="12"/>
     </row>
     <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F398" s="12"/>
     </row>
     <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F399" s="12"/>
     </row>
     <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F400" s="12"/>
     </row>
     <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F401" s="12"/>
     </row>
     <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F402" s="12"/>
     </row>
     <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F403" s="12"/>
     </row>
     <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F404" s="12"/>
     </row>
     <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F405" s="12"/>
     </row>
     <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F406" s="12"/>
     </row>
     <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F407" s="12"/>
     </row>
     <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F408" s="12"/>
     </row>
     <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F409" s="12"/>
     </row>
     <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F410" s="12"/>
     </row>
     <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F411" s="12"/>
     </row>
     <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F412" s="12"/>
     </row>
     <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F413" s="12"/>
     </row>
     <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F414" s="12"/>
     </row>
     <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F415" s="12"/>
     </row>
     <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F416" s="12"/>
     </row>
     <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F417" s="12"/>
     </row>
     <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F418" s="12"/>
     </row>
     <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F419" s="12"/>
     </row>
     <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F420" s="12"/>
     </row>
     <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F421" s="12"/>
     </row>
     <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F422" s="12"/>
     </row>
     <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F423" s="12"/>
     </row>
     <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F424" s="12"/>
     </row>
     <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F425" s="12"/>
     </row>
     <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F426" s="12"/>
     </row>
     <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F427" s="12"/>
     </row>
     <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F428" s="12"/>
     </row>
     <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F429" s="12"/>
     </row>
     <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F430" s="12"/>
     </row>
     <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F431" s="12"/>
     </row>
     <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F432" s="12"/>
     </row>
     <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F433" s="12"/>
     </row>
     <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F434" s="12"/>
     </row>
     <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F435" s="12"/>
     </row>
     <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F436" s="12"/>
     </row>
     <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F437" s="12"/>
     </row>
     <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F438" s="12"/>
     </row>
     <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F439" s="12"/>
     </row>
     <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F440" s="12"/>
     </row>
     <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F441" s="12"/>
     </row>
     <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F442" s="12"/>
     </row>
     <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F443" s="12"/>
     </row>
     <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F444" s="12"/>
     </row>
     <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F445" s="12"/>
     </row>
     <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F446" s="12"/>
     </row>
     <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F447" s="12"/>
     </row>
     <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F448" s="12"/>
     </row>
     <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F449" s="12"/>
     </row>
     <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F450" s="12"/>
     </row>
     <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F451" s="12"/>
     </row>
     <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F452" s="12"/>
     </row>
     <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F453" s="12"/>
     </row>
     <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F454" s="12"/>
     </row>
     <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F455" s="12"/>
     </row>
     <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F456" s="12"/>
     </row>
     <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F457" s="12"/>
     </row>
     <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F458" s="12"/>
     </row>
     <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F459" s="12"/>
     </row>
     <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F460" s="12"/>
     </row>
     <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F461" s="12"/>
     </row>
     <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F462" s="12"/>
     </row>
     <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F463" s="12"/>
     </row>
     <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F464" s="12"/>
     </row>
     <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F465" s="12"/>
     </row>
     <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F466" s="12"/>
     </row>
     <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F467" s="12"/>
     </row>
     <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F468" s="12"/>
     </row>
     <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F469" s="12"/>
     </row>
     <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F470" s="12"/>
     </row>
     <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F471" s="12"/>
     </row>
     <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F472" s="12"/>
     </row>
     <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F473" s="12"/>
     </row>
     <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F474" s="12"/>
     </row>
     <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F475" s="12"/>
     </row>
     <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F476" s="12"/>
     </row>
     <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F477" s="12"/>
     </row>
     <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F478" s="12"/>
     </row>
     <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F479" s="12"/>
     </row>
     <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F480" s="12"/>
     </row>
     <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F481" s="12"/>
     </row>
     <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F482" s="12"/>
     </row>
     <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F483" s="12"/>
     </row>
     <row r="484" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D484" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F484" s="12"/>
     </row>
     <row r="485" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D485" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F485" s="12"/>
     </row>
     <row r="486" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D486" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F486" s="12"/>
     </row>
     <row r="487" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D487" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F487" s="12"/>
     </row>
     <row r="488" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D488" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F488" s="12"/>
     </row>
     <row r="489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D489" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F489" s="12"/>
     </row>
     <row r="490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D490" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F490" s="12"/>
     </row>
     <row r="491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D491" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F491" s="12"/>
     </row>
     <row r="492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D492" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F492" s="12"/>
     </row>
     <row r="493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D493" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F493" s="12"/>
     </row>
     <row r="494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D494" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F494" s="12"/>
     </row>
     <row r="495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D495" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F495" s="12"/>
     </row>
     <row r="496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D496" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F496" s="12"/>
     </row>
     <row r="497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D497" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F497" s="12"/>
     </row>
     <row r="498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D498" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F498" s="12"/>
     </row>
     <row r="499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D499" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F499" s="12"/>
     </row>
     <row r="500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D500" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F500" s="12"/>
     </row>
     <row r="501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D501" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F501" s="12"/>
     </row>
     <row r="502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D502" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F502" s="12"/>
     </row>
     <row r="503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D503" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F503" s="12"/>
     </row>
     <row r="504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D504" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F504" s="12"/>
     </row>
     <row r="505" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D505" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F505" s="12"/>
     </row>
     <row r="506" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D506" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F506" s="12"/>
     </row>
     <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D507" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F507" s="12"/>
     </row>
     <row r="508" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D508" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F508" s="12"/>
     </row>
     <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F509" s="12"/>
     </row>
     <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D510" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F510" s="12"/>
     </row>
     <row r="511" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D511" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F511" s="12"/>
     </row>
     <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D512" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F512" s="12"/>
     </row>
     <row r="513" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D513" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E513" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F513" s="12"/>
     </row>
     <row r="514" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D514" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E514" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F514" s="12"/>
     </row>
     <row r="515" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D515" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E515" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F515" s="12"/>
     </row>
     <row r="516" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D516" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E516" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F516" s="12"/>
     </row>
     <row r="517" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D517" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F517" s="12"/>
     </row>
     <row r="518" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D518" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F518" s="12"/>
     </row>
     <row r="519" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D519" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F519" s="12"/>
     </row>
     <row r="520" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D520" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F520" s="12"/>
     </row>
     <row r="521" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D521" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F521" s="12"/>
     </row>
     <row r="522" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D522" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F522" s="12"/>
     </row>
     <row r="523" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D523" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F523" s="12"/>
     </row>
     <row r="524" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D524" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F524" s="12"/>
     </row>
     <row r="525" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D525" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F525" s="12"/>
     </row>
     <row r="526" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D526" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F526" s="12"/>
     </row>
     <row r="527" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D527" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F527" s="12"/>
     </row>
     <row r="528" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D528" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F528" s="12"/>
     </row>
     <row r="529" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D529" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F529" s="12"/>
     </row>
     <row r="530" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D530" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F530" s="12"/>
     </row>
     <row r="531" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D531" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F531" s="12"/>
     </row>
     <row r="532" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D532" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F532" s="12"/>
     </row>
     <row r="533" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D533" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F533" s="12"/>
     </row>
     <row r="534" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D534" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F534" s="12"/>
     </row>
     <row r="535" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D535" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F535" s="12"/>
     </row>
     <row r="536" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D536" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F536" s="12"/>
     </row>
     <row r="537" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D537" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F537" s="12"/>
     </row>
     <row r="538" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D538" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F538" s="12"/>
     </row>
     <row r="539" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D539" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F539" s="12"/>
     </row>
     <row r="540" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D540" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F540" s="12"/>
     </row>
     <row r="541" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D541" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F541" s="12"/>
     </row>
     <row r="542" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D542" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F542" s="12"/>
     </row>
     <row r="543" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D543" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F543" s="12"/>
     </row>
     <row r="544" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D544" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F544" s="12"/>
     </row>
     <row r="545" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D545" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F545" s="12"/>
     </row>
     <row r="546" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D546" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F546" s="12"/>
     </row>
     <row r="547" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D547" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F547" s="12"/>
     </row>
     <row r="548" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D548" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F548" s="12"/>
     </row>
     <row r="549" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D549" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F549" s="12"/>
     </row>
     <row r="550" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D550" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F550" s="12"/>
     </row>
     <row r="551" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D551" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F551" s="12"/>
     </row>
     <row r="552" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D552" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F552" s="12"/>
     </row>
     <row r="553" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D553" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F553" s="12"/>
     </row>
     <row r="554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D554" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F554" s="12"/>
     </row>
     <row r="555" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D555" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F555" s="12"/>
     </row>
     <row r="556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D556" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F556" s="12"/>
     </row>
     <row r="557" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D557" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F557" s="12"/>
     </row>
     <row r="558" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D558" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F558" s="12"/>
     </row>
     <row r="559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D559" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F559" s="12"/>
     </row>
     <row r="560" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D560" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E560" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F560" s="12"/>
     </row>
     <row r="561" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D561" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F561" s="12"/>
     </row>
     <row r="562" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D562" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F562" s="12"/>
     </row>
     <row r="563" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D563" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F563" s="12"/>
     </row>
     <row r="564" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D564" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F564" s="12"/>
     </row>
     <row r="565" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D565" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F565" s="12"/>
     </row>
     <row r="566" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D566" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F566" s="12"/>
     </row>
     <row r="567" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D567" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F567" s="12"/>
     </row>
     <row r="568" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D568" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F568" s="12"/>
     </row>
     <row r="569" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D569" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F569" s="12"/>
     </row>
     <row r="570" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D570" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F570" s="12"/>
     </row>
     <row r="571" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D571" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F571" s="12"/>
     </row>
     <row r="572" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D572" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F572" s="12"/>
     </row>
     <row r="573" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D573" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F573" s="12"/>
     </row>
     <row r="574" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D574" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E574" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F574" s="12"/>
     </row>
     <row r="575" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D575" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F575" s="12"/>
     </row>
     <row r="576" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D576" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F576" s="12"/>
     </row>
     <row r="577" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D577" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E577" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F577" s="12"/>
     </row>
     <row r="578" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D578" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E578" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F578" s="12"/>
     </row>
     <row r="579" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D579" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E579" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F579" s="12"/>
     </row>
     <row r="580" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D580" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E580" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F580" s="12"/>
     </row>
     <row r="581" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D581" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E581" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F581" s="12"/>
     </row>
     <row r="582" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D582" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E582" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F582" s="12"/>
     </row>
     <row r="583" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D583" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E583" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F583" s="12"/>
     </row>
     <row r="584" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D584" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E584" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F584" s="12"/>
     </row>
     <row r="585" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D585" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F585" s="12"/>
     </row>
     <row r="586" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D586" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F586" s="12"/>
     </row>
     <row r="587" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D587" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F587" s="12"/>
     </row>
     <row r="588" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D588" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E588" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F588" s="12"/>
     </row>
     <row r="589" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D589" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E589" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F589" s="12"/>
     </row>
     <row r="590" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D590" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F590" s="12"/>
     </row>
     <row r="591" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D591" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E591" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F591" s="12"/>
     </row>
     <row r="592" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D592" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E592" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F592" s="12"/>
     </row>
